--- a/data/trans_bre/P07B_R_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P07B_R_2023-Clase-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-1.053925521752391</v>
+        <v>-1.053925521752392</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-0.1496914394647523</v>
+        <v>-0.1496914394647524</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.432400951682133</v>
+        <v>-4.169016972525347</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.4815410657693108</v>
+        <v>-0.4515005355946144</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.294952565227307</v>
+        <v>1.957581325979059</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.4616525276716194</v>
+        <v>0.4174342572488547</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>5.269000909724031</v>
+        <v>5.269000909724032</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>1.373231132669863</v>
+        <v>1.373231132669864</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.146778907776739</v>
+        <v>2.141838075798418</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3326784419751716</v>
+        <v>0.3378907632049601</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.548280314560012</v>
+        <v>8.267308354258923</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.161502191188083</v>
+        <v>3.02529219806883</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2285496264302711</v>
+        <v>0.4286908521983808</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.0006210776176694071</v>
+        <v>0.04406893716273755</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.701049844995683</v>
+        <v>8.830917751618687</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.697742240391312</v>
+        <v>1.749959924277781</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>1.555114056409032</v>
+        <v>1.555114056409031</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.2424124749035142</v>
+        <v>0.2424124749035139</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.5563145823645221</v>
+        <v>-0.7152387735383819</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07390191220891418</v>
+        <v>-0.09733883578698238</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.686874786500061</v>
+        <v>3.872615828062432</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7019375236263643</v>
+        <v>0.7073546839895081</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>5.019561994711852</v>
+        <v>5.019561994711854</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.6527389381051266</v>
+        <v>0.652738938105127</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.076799620014151</v>
+        <v>2.324189597228461</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.2007279179696957</v>
+        <v>0.2174717145144311</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.009623467470577</v>
+        <v>7.95514714564476</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1.369163927659918</v>
+        <v>1.36783396751104</v>
       </c>
     </row>
     <row r="19">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>6.178172708993652</v>
+        <v>6.178172708993653</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>1.400661533278004</v>
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.836428275274747</v>
+        <v>2.186854534111752</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2243414756101249</v>
+        <v>0.2533542008681252</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.160686937400669</v>
+        <v>9.258120625845475</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.179150355049393</v>
+        <v>4.351602851703376</v>
       </c>
     </row>
     <row r="22">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>3.449212569723519</v>
+        <v>3.44921256972352</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.5548907849241976</v>
+        <v>0.5548907849241977</v>
       </c>
     </row>
     <row r="23">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.256653393630181</v>
+        <v>2.156616977945255</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.3270131448991392</v>
+        <v>0.2988829015310182</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.62268050495918</v>
+        <v>4.742483791056781</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.8417071950980325</v>
+        <v>0.8587592660878796</v>
       </c>
     </row>
     <row r="25">
